--- a/VT_REG1_IND_V12.xlsx
+++ b/VT_REG1_IND_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAMS AND GIT\GitHub\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D48082-0C1C-4A19-BC88-850619F71EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506B711-4013-4852-8BAF-B7743F145EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -27,12 +27,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,12 +45,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD8" authorId="0" shapeId="0">
+    <comment ref="AD8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,14 +81,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -811,14 +816,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -932,7 +937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -958,7 +963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2058,13 +2063,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2094,32 +2099,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2573,31 +2552,31 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="152">
@@ -2614,23 +2593,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2639,15 +2618,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
@@ -2662,97 +2641,97 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="23" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="21" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -2763,15 +2742,15 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2781,8 +2760,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2790,16 +2769,16 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -2809,10 +2788,10 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2821,83 +2800,83 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="6"/>
-    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="9" fontId="18" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 4" xfId="21"/>
-    <cellStyle name="Percent 4 2" xfId="22"/>
-    <cellStyle name="Percent 4 3" xfId="23"/>
-    <cellStyle name="Percent 5" xfId="24"/>
-    <cellStyle name="Percent 6" xfId="25"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="26"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 6" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3698,7 +3677,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3833,7 +3812,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EnergyBalance"/>
@@ -4623,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6331,7 +6310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6376,11 +6355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6976,8 +6955,7 @@
         <v>KER</v>
       </c>
       <c r="E19" s="88">
-        <f>-'EB1'!H$7/-SUM('EB1'!$G$7:$M$7)</f>
-        <v>3.6087163455549506E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="89"/>
@@ -7010,8 +6988,7 @@
         <v>LPG</v>
       </c>
       <c r="E20" s="88">
-        <f>-'EB1'!I$7/-SUM('EB1'!$G$7:$M$7)</f>
-        <v>0.14191233727077954</v>
+        <v>0.04</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="89"/>
@@ -7229,7 +7206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7870,11 +7847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8014,8 +7991,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="101">
-        <f>SUM('EB1'!D7:E7,'EB1'!G7:O7,'EB1'!U7)</f>
-        <v>6600.8440499999997</v>
+        <v>4054</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>119</v>
@@ -8084,6 +8060,11 @@
         <v>0.21</v>
       </c>
     </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>6601</v>
+      </c>
+    </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E15" s="34"/>
     </row>
@@ -8112,7 +8093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
